--- a/Dane/gene_names.xlsx
+++ b/Dane/gene_names.xlsx
@@ -19,39 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>BIRC3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>HADHA</t>
-  </si>
-  <si>
-    <t>ACTB</t>
-  </si>
-  <si>
-    <t>CCL2</t>
-  </si>
-  <si>
-    <t>GPRC5B</t>
-  </si>
-  <si>
-    <t>IL1A</t>
-  </si>
-  <si>
-    <t>MFAP4</t>
-  </si>
-  <si>
-    <t>POSTN</t>
-  </si>
-  <si>
-    <t>TNFAIP3</t>
   </si>
   <si>
     <t>gene_names</t>
   </si>
   <si>
     <t>ATP6V1</t>
+  </si>
+  <si>
+    <t>UBE2D2</t>
   </si>
 </sst>
 </file>
@@ -385,17 +364,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -405,47 +384,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
